--- a/biology/Histoire de la zoologie et de la botanique/Eugene_Bernard_Shelley_Logier/Eugene_Bernard_Shelley_Logier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugene_Bernard_Shelley_Logier/Eugene_Bernard_Shelley_Logier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugene Bernard Shelley Logier est un herpétologiste canadien, né le 27 février 1893 à Clontarf et mort le 16 mars 1979 à Toronto.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille émigre au Canada en 1906 où il s’initie à la zoologie auprès de Charles William Nash (1848-1926). Passionné dès l’enfance par la nature, doué dans le domaine des arts, il devient illustrateur au Musée royal de l'Ontario en 1915. Il y fait sa carrière et devient, en 1947, conservateur des collections herpétologiques qui atteignent le nombre de 10 000 spécimens grâce à de nombreuses expéditions à travers le pays. En 1948, il commence à enseigner l’herpétologie à l’université de Toronto. Il est l’auteur de plus de cinquante publications, qu’il illustre lui-même.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1930: avec Lester Lynne Snyder (1894-1968), A faunal investigation of King Township, Contributions of the Royal Ontario Museum of Zoology , 3 : 167-208.
 1939 : The reptiles of Ontario.
